--- a/Exc2/Проверочный лист для аудита ИБ.xlsx
+++ b/Exc2/Проверочный лист для аудита ИБ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\architecture-sprint-7\Exc2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79536DB-CA82-46DC-A8D6-92DF58C8414B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="3450" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7896" yWindow="3456" windowWidth="21600" windowHeight="11388"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="129">
   <si>
     <t>№</t>
   </si>
@@ -263,12 +262,156 @@
   </si>
   <si>
     <t>Нет</t>
+  </si>
+  <si>
+    <t>Объяснение</t>
+  </si>
+  <si>
+    <t>Позволит увеличить безопасности входа в критические сервисы и системы</t>
+  </si>
+  <si>
+    <t>Позволит увеличить стойкость паролей к грубому перебору</t>
+  </si>
+  <si>
+    <t>Позволит своевременно убирать завышенные привилегии</t>
+  </si>
+  <si>
+    <t>Позволит пользователям иметь минимально допустимый набор привилегий</t>
+  </si>
+  <si>
+    <t>Позволит ограничить доступ сотрудников после их увольнения</t>
+  </si>
+  <si>
+    <t>Позволит отслеживать операции к данным</t>
+  </si>
+  <si>
+    <t>Позволит повысить точность разграничения доступа</t>
+  </si>
+  <si>
+    <t>Позволит ограничить доступ к системам</t>
+  </si>
+  <si>
+    <t>Позволит уменьшить поверхность атаки</t>
+  </si>
+  <si>
+    <t>Централизованный реестр облегчает управление учетными записями</t>
+  </si>
+  <si>
+    <t>Позволят своевременно отзывать права доступа</t>
+  </si>
+  <si>
+    <t>Позволит соблюдать законодаительство</t>
+  </si>
+  <si>
+    <t>Устраняет атаку "человек по середине"</t>
+  </si>
+  <si>
+    <t>Повышает безопасность управления ключами шифрования</t>
+  </si>
+  <si>
+    <t>Позволит восстановить данные в случае их потери</t>
+  </si>
+  <si>
+    <t>Проверяет возможность восстановления данных</t>
+  </si>
+  <si>
+    <t>Позволит работать ограниченному кругу лиц</t>
+  </si>
+  <si>
+    <t>Позволит своевременно управлять доступом к данных</t>
+  </si>
+  <si>
+    <t>Позволит своевременно уничтожать данные во избежании утечки даных</t>
+  </si>
+  <si>
+    <t>Позволит следить за целостностью данных</t>
+  </si>
+  <si>
+    <t>Позволит обезличить пользователей в случае утечки данных</t>
+  </si>
+  <si>
+    <t>Облегчит восстановление данных для новых сотрудников</t>
+  </si>
+  <si>
+    <t>Повышает сетевую безопасность системы</t>
+  </si>
+  <si>
+    <t>Позволит своевременно обнаруживать атаки</t>
+  </si>
+  <si>
+    <t>Позволит автоматически предотвращать DDoS</t>
+  </si>
+  <si>
+    <t>Позволит своевременно устранять уязвимости.</t>
+  </si>
+  <si>
+    <t>Позволит своевременно реагировать на атаки</t>
+  </si>
+  <si>
+    <t>Повышает безопасность файловой системы</t>
+  </si>
+  <si>
+    <t>Позволит выявить сложные атаки</t>
+  </si>
+  <si>
+    <t>Позволит качество работы новых сотрудников</t>
+  </si>
+  <si>
+    <t>Позволит держать сотрудников всегда на готове</t>
+  </si>
+  <si>
+    <t>Позволит следить за актуальностью системы безопасности</t>
+  </si>
+  <si>
+    <t>Позволит отслеживать незарегистрированные устройства</t>
+  </si>
+  <si>
+    <t>Позволяет поваысить безопасность доступа к серверным помещениям</t>
+  </si>
+  <si>
+    <t>Усиливает контроль оборудования</t>
+  </si>
+  <si>
+    <t>Позволяет снизить вероятность утечки данных</t>
+  </si>
+  <si>
+    <t>Усиливает безопаность доступа к облачным ресурсам</t>
+  </si>
+  <si>
+    <t>Позволяет своевременно реагировать на угрозы</t>
+  </si>
+  <si>
+    <t>Снижает вероятность потери данных</t>
+  </si>
+  <si>
+    <t>Уменьшает вероятность несанкционированного доступа</t>
+  </si>
+  <si>
+    <t>Позволяет более гибко настроить разграничнеие доступа</t>
+  </si>
+  <si>
+    <t>Повышает безопасность доступа к ресурсам</t>
+  </si>
+  <si>
+    <t>Позволяет своевременно находить проблемы в конфигурации</t>
+  </si>
+  <si>
+    <t>Позволяет контролировать безопасность мобильных устройств</t>
+  </si>
+  <si>
+    <t>Повышает безопасность от атаки "человек по середине"</t>
+  </si>
+  <si>
+    <t>Позволит разграничить доступ к данным и своевременно утилизировать данные</t>
+  </si>
+  <si>
+    <t>Позволит ужесточить контроль персональных данных</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -321,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -358,30 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -409,11 +528,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,56 +614,71 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,23 +902,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" ht="27" customHeight="1">
+    <row r="3" spans="3:7" ht="27" customHeight="1">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,19 +929,23 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" ht="30.75" customHeight="1">
-      <c r="C4" s="7" t="s">
+      <c r="G3" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="30.75" customHeight="1">
+      <c r="C4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="3:6" ht="83.45" customHeight="1">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="3:7" ht="83.4" customHeight="1">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -748,9 +953,12 @@
         <v>5</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="3:6" ht="61.5" customHeight="1">
+      <c r="F5" s="16"/>
+      <c r="G5" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="61.5" customHeight="1">
       <c r="C6" s="2">
         <v>2</v>
       </c>
@@ -758,9 +966,12 @@
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="3:6" ht="80.25" customHeight="1">
+      <c r="F6" s="16"/>
+      <c r="G6" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="80.25" customHeight="1">
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -768,9 +979,12 @@
         <v>7</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="3:6" ht="77.25" customHeight="1">
+      <c r="F7" s="16"/>
+      <c r="G7" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="77.25" customHeight="1">
       <c r="C8" s="2">
         <v>4</v>
       </c>
@@ -778,9 +992,12 @@
         <v>8</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="3:6" ht="87.75" customHeight="1">
+      <c r="F8" s="16"/>
+      <c r="G8" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="87.75" customHeight="1">
       <c r="C9" s="2">
         <v>5</v>
       </c>
@@ -788,9 +1005,12 @@
         <v>9</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="3:6" ht="69" customHeight="1">
+      <c r="F9" s="16"/>
+      <c r="G9" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="69" customHeight="1">
       <c r="C10" s="2">
         <v>6</v>
       </c>
@@ -798,9 +1018,12 @@
         <v>10</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="3:6" ht="82.5" customHeight="1">
+      <c r="F10" s="16"/>
+      <c r="G10" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="82.5" customHeight="1">
       <c r="C11" s="2">
         <v>7</v>
       </c>
@@ -808,9 +1031,12 @@
         <v>11</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="3:6" ht="62.25" customHeight="1">
+      <c r="F11" s="16"/>
+      <c r="G11" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="62.25" customHeight="1">
       <c r="C12" s="2">
         <v>8</v>
       </c>
@@ -820,11 +1046,14 @@
       <c r="E12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" ht="55.5" customHeight="1">
+      <c r="G12" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="55.5" customHeight="1">
       <c r="C13" s="2">
         <v>9</v>
       </c>
@@ -832,9 +1061,12 @@
         <v>13</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="3:6" ht="62.45" customHeight="1">
+      <c r="F13" s="16"/>
+      <c r="G13" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="62.4" customHeight="1">
       <c r="C14" s="2">
         <v>10</v>
       </c>
@@ -844,11 +1076,14 @@
       <c r="E14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="3:6" ht="62.45" customHeight="1">
+      <c r="G14" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="62.4" customHeight="1">
       <c r="C15" s="2">
         <v>11</v>
       </c>
@@ -858,9 +1093,12 @@
       <c r="E15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="3:6" ht="68.25" customHeight="1">
+      <c r="F15" s="16"/>
+      <c r="G15" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="68.25" customHeight="1">
       <c r="C16" s="2">
         <v>12</v>
       </c>
@@ -870,9 +1108,12 @@
       <c r="E16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="3:6" ht="52.9" customHeight="1">
+      <c r="F16" s="16"/>
+      <c r="G16" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="52.95" customHeight="1">
       <c r="C17" s="2">
         <v>13</v>
       </c>
@@ -880,9 +1121,12 @@
         <v>17</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="3:6" ht="60.75" customHeight="1">
+      <c r="F17" s="16"/>
+      <c r="G17" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="60.75" customHeight="1">
       <c r="C18" s="2">
         <v>14</v>
       </c>
@@ -892,17 +1136,21 @@
       <c r="E18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="3:6" ht="36.75" customHeight="1">
-      <c r="C19" s="10" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="36.75" customHeight="1">
+      <c r="C19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="3:6" ht="75.75" customHeight="1">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="3:7" ht="75.75" customHeight="1">
       <c r="C20" s="2">
         <v>1</v>
       </c>
@@ -910,9 +1158,12 @@
         <v>20</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="3:6" ht="63.75" customHeight="1">
+      <c r="F20" s="17"/>
+      <c r="G20" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="63.75" customHeight="1">
       <c r="C21" s="2">
         <v>2</v>
       </c>
@@ -920,9 +1171,12 @@
         <v>21</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="3:6" ht="54" customHeight="1">
+      <c r="F21" s="17"/>
+      <c r="G21" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="54" customHeight="1">
       <c r="C22" s="2">
         <v>3</v>
       </c>
@@ -930,9 +1184,12 @@
         <v>22</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="3:6" ht="82.5" customHeight="1">
+      <c r="F22" s="17"/>
+      <c r="G22" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="82.5" customHeight="1">
       <c r="C23" s="2">
         <v>4</v>
       </c>
@@ -942,11 +1199,14 @@
       <c r="E23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" ht="64.5" customHeight="1">
+      <c r="G23" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="64.5" customHeight="1">
       <c r="C24" s="2">
         <v>5</v>
       </c>
@@ -954,9 +1214,12 @@
         <v>24</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="3:6" ht="56.25" customHeight="1">
+      <c r="F24" s="17"/>
+      <c r="G24" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="56.25" customHeight="1">
       <c r="C25" s="2">
         <v>6</v>
       </c>
@@ -964,9 +1227,12 @@
         <v>25</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="3:6" ht="125.25" customHeight="1">
+      <c r="F25" s="17"/>
+      <c r="G25" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="125.25" customHeight="1">
       <c r="C26" s="2">
         <v>7</v>
       </c>
@@ -974,9 +1240,12 @@
         <v>26</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="3:6" ht="90" customHeight="1">
+      <c r="F26" s="17"/>
+      <c r="G26" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="90" customHeight="1">
       <c r="C27" s="2">
         <v>8</v>
       </c>
@@ -984,9 +1253,12 @@
         <v>27</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="3:6" ht="55.5" customHeight="1">
+      <c r="F27" s="17"/>
+      <c r="G27" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="55.5" customHeight="1">
       <c r="C28" s="2">
         <v>9</v>
       </c>
@@ -994,9 +1266,12 @@
         <v>28</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="3:6" ht="51.75" customHeight="1">
+      <c r="F28" s="17"/>
+      <c r="G28" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="51.75" customHeight="1">
       <c r="C29" s="2">
         <v>10</v>
       </c>
@@ -1004,9 +1279,12 @@
         <v>29</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="3:6" ht="53.25" customHeight="1">
+      <c r="F29" s="17"/>
+      <c r="G29" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="53.25" customHeight="1">
       <c r="C30" s="2">
         <v>11</v>
       </c>
@@ -1014,9 +1292,12 @@
         <v>30</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="3:6" ht="52.5" customHeight="1">
+      <c r="F30" s="17"/>
+      <c r="G30" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="52.5" customHeight="1">
       <c r="C31" s="2">
         <v>12</v>
       </c>
@@ -1024,9 +1305,12 @@
         <v>31</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="3:6" ht="51" customHeight="1">
+      <c r="F31" s="17"/>
+      <c r="G31" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="51" customHeight="1">
       <c r="C32" s="2">
         <v>13</v>
       </c>
@@ -1034,9 +1318,12 @@
         <v>32</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="3:6" ht="48.75" customHeight="1">
+      <c r="F32" s="17"/>
+      <c r="G32" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="48.75" customHeight="1">
       <c r="C33" s="2">
         <v>14</v>
       </c>
@@ -1044,17 +1331,21 @@
         <v>33</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="3:6" ht="29.25" customHeight="1">
-      <c r="C34" s="10" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="29.25" customHeight="1">
+      <c r="C34" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="3:6" ht="69" customHeight="1">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="3:7" ht="69" customHeight="1">
       <c r="C35" s="2">
         <v>1</v>
       </c>
@@ -1064,11 +1355,14 @@
       <c r="E35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="3:6" ht="90.75" customHeight="1">
+      <c r="G35" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="90.75" customHeight="1">
       <c r="C36" s="2">
         <v>2</v>
       </c>
@@ -1076,9 +1370,12 @@
         <v>36</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="3:6" ht="80.25" customHeight="1">
+      <c r="F36" s="18"/>
+      <c r="G36" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="80.25" customHeight="1">
       <c r="C37" s="2">
         <v>3</v>
       </c>
@@ -1086,9 +1383,12 @@
         <v>37</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="3:6" ht="70.5" customHeight="1">
+      <c r="F37" s="18"/>
+      <c r="G37" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="70.5" customHeight="1">
       <c r="C38" s="2">
         <v>4</v>
       </c>
@@ -1096,9 +1396,12 @@
         <v>38</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="3:6" ht="80.25" customHeight="1">
+      <c r="F38" s="18"/>
+      <c r="G38" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="80.25" customHeight="1">
       <c r="C39" s="2">
         <v>5</v>
       </c>
@@ -1106,9 +1409,12 @@
         <v>39</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="3:6" ht="82.5" customHeight="1">
+      <c r="F39" s="18"/>
+      <c r="G39" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="82.5" customHeight="1">
       <c r="C40" s="2">
         <v>6</v>
       </c>
@@ -1116,9 +1422,12 @@
         <v>40</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="3:6" ht="81" customHeight="1">
+      <c r="F40" s="18"/>
+      <c r="G40" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="81" customHeight="1">
       <c r="C41" s="2">
         <v>7</v>
       </c>
@@ -1126,9 +1435,12 @@
         <v>41</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="3:6" ht="78.75" customHeight="1">
+      <c r="F41" s="18"/>
+      <c r="G41" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" ht="78.75" customHeight="1">
       <c r="C42" s="2">
         <v>8</v>
       </c>
@@ -1136,9 +1448,12 @@
         <v>42</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="3:6" ht="93.75" customHeight="1">
+      <c r="F42" s="18"/>
+      <c r="G42" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" ht="93.75" customHeight="1">
       <c r="C43" s="2">
         <v>9</v>
       </c>
@@ -1146,9 +1461,12 @@
         <v>43</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="3:6" ht="63.75" customHeight="1">
+      <c r="F43" s="18"/>
+      <c r="G43" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" ht="63.75" customHeight="1">
       <c r="C44" s="2">
         <v>10</v>
       </c>
@@ -1156,9 +1474,12 @@
         <v>44</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="3:6" ht="53.25" customHeight="1">
+      <c r="F44" s="18"/>
+      <c r="G44" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="53.25" customHeight="1">
       <c r="C45" s="2">
         <v>11</v>
       </c>
@@ -1166,9 +1487,12 @@
         <v>45</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="3:6" ht="54.75" customHeight="1">
+      <c r="F45" s="18"/>
+      <c r="G45" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="54.75" customHeight="1">
       <c r="C46" s="2">
         <v>12</v>
       </c>
@@ -1176,17 +1500,21 @@
         <v>46</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="3:6" ht="24.75" customHeight="1">
-      <c r="C47" s="10" t="s">
+      <c r="F46" s="18"/>
+      <c r="G46" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" ht="24.75" customHeight="1">
+      <c r="C47" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="3:6" ht="82.5" customHeight="1">
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="3:7" ht="82.5" customHeight="1">
       <c r="C48" s="2">
         <v>1</v>
       </c>
@@ -1194,9 +1522,12 @@
         <v>48</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="2:6" ht="101.25" customHeight="1">
+      <c r="F48" s="17"/>
+      <c r="G48" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="101.25" customHeight="1">
       <c r="C49" s="2">
         <v>2</v>
       </c>
@@ -1204,9 +1535,12 @@
         <v>49</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="2:6" ht="105.75" customHeight="1">
+      <c r="F49" s="17"/>
+      <c r="G49" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="105.75" customHeight="1">
       <c r="C50" s="2">
         <v>3</v>
       </c>
@@ -1214,9 +1548,12 @@
         <v>50</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="2:6" ht="80.25" customHeight="1">
+      <c r="F50" s="17"/>
+      <c r="G50" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="80.25" customHeight="1">
       <c r="C51" s="2">
         <v>4</v>
       </c>
@@ -1224,9 +1561,12 @@
         <v>51</v>
       </c>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="2:6" ht="88.5" customHeight="1">
+      <c r="F51" s="17"/>
+      <c r="G51" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="88.5" customHeight="1">
       <c r="C52" s="2">
         <v>5</v>
       </c>
@@ -1234,9 +1574,12 @@
         <v>52</v>
       </c>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="2:6" ht="90.75" customHeight="1">
+      <c r="F52" s="17"/>
+      <c r="G52" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="90.75" customHeight="1">
       <c r="C53" s="2">
         <v>6</v>
       </c>
@@ -1244,26 +1587,31 @@
         <v>53</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="2:6" ht="24" customHeight="1">
-      <c r="C54" s="10" t="s">
+      <c r="F53" s="17"/>
+      <c r="G53" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="24" customHeight="1">
+      <c r="C54" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="2:6" ht="24" customHeight="1">
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+    </row>
+    <row r="55" spans="2:7" ht="24" customHeight="1">
       <c r="B55" s="6"/>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="2:6" ht="93.75" customHeight="1">
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
+    </row>
+    <row r="56" spans="2:7" ht="93.75" customHeight="1">
       <c r="C56" s="2">
         <v>1</v>
       </c>
@@ -1271,17 +1619,21 @@
         <v>56</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="2:6" ht="25.5" customHeight="1">
-      <c r="C57" s="11" t="s">
+      <c r="F56" s="17"/>
+      <c r="G56" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="25.5" customHeight="1">
+      <c r="C57" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="2:6" ht="67.5" customHeight="1">
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
+    </row>
+    <row r="58" spans="2:7" ht="67.5" customHeight="1">
       <c r="C58" s="2">
         <v>1</v>
       </c>
@@ -1289,9 +1641,12 @@
         <v>58</v>
       </c>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="2:6" ht="84" customHeight="1">
+      <c r="F58" s="17"/>
+      <c r="G58" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="84" customHeight="1">
       <c r="C59" s="2">
         <v>2</v>
       </c>
@@ -1299,164 +1654,206 @@
         <v>59</v>
       </c>
       <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="2:6" ht="84.75" customHeight="1">
-      <c r="C60" s="14">
+      <c r="F59" s="17"/>
+      <c r="G59" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="84.75" customHeight="1">
+      <c r="C60" s="7">
         <v>3</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="2:6" ht="25.7" customHeight="1">
-      <c r="C61" s="17" t="s">
+      <c r="E60" s="9"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="25.65" customHeight="1">
+      <c r="C61" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-    </row>
-    <row r="62" spans="2:6" ht="38.25">
-      <c r="C62" s="18">
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="30"/>
+    </row>
+    <row r="62" spans="2:7" ht="39.6">
+      <c r="C62" s="10">
         <v>1</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-    </row>
-    <row r="63" spans="2:6" ht="76.5">
-      <c r="C63" s="18">
+      <c r="E62" s="12"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="79.2">
+      <c r="C63" s="10">
         <v>2</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-    </row>
-    <row r="64" spans="2:6" ht="63.75">
-      <c r="C64" s="18">
+      <c r="E63" s="12"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="66">
+      <c r="C64" s="10">
         <v>3</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-    </row>
-    <row r="65" spans="3:6" ht="51">
-      <c r="C65" s="18">
+      <c r="E64" s="12"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" ht="52.8">
+      <c r="C65" s="10">
         <v>4</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-    </row>
-    <row r="66" spans="3:6" ht="51">
-      <c r="C66" s="18">
+      <c r="E65" s="12"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" ht="52.8">
+      <c r="C66" s="10">
         <v>5</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-    </row>
-    <row r="67" spans="3:6" ht="51">
-      <c r="C67" s="18">
+      <c r="E66" s="12"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" ht="52.8">
+      <c r="C67" s="10">
         <v>6</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-    </row>
-    <row r="68" spans="3:6" ht="51">
-      <c r="C68" s="18">
+      <c r="E67" s="12"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" ht="52.8">
+      <c r="C68" s="10">
         <v>7</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-    </row>
-    <row r="69" spans="3:6" ht="25.7" customHeight="1">
-      <c r="C69" s="17" t="s">
+      <c r="E68" s="12"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" ht="25.65" customHeight="1">
+      <c r="C69" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-    </row>
-    <row r="70" spans="3:6" ht="51">
-      <c r="C70" s="18">
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="30"/>
+    </row>
+    <row r="70" spans="3:7" ht="52.8">
+      <c r="C70" s="10">
         <v>1</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-    </row>
-    <row r="71" spans="3:6" ht="25.7" customHeight="1">
-      <c r="C71" s="17" t="s">
+      <c r="E70" s="12"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" ht="25.65" customHeight="1">
+      <c r="C71" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-    </row>
-    <row r="72" spans="3:6" ht="63.75">
-      <c r="C72" s="18">
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="30"/>
+    </row>
+    <row r="72" spans="3:7" ht="66">
+      <c r="C72" s="10">
         <v>1</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-    </row>
-    <row r="73" spans="3:6" ht="38.25">
-      <c r="C73" s="18">
+      <c r="E72" s="12"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" ht="39.6">
+      <c r="C73" s="10">
         <v>2</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-    </row>
-    <row r="74" spans="3:6" ht="63.75">
-      <c r="C74" s="18">
+      <c r="E73" s="12"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" ht="66">
+      <c r="C74" s="10">
         <v>3</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="14" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C71:G71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
